--- a/public/templates/ATTACHMENTS-MONITORING-SHEET.xlsx
+++ b/public/templates/ATTACHMENTS-MONITORING-SHEET.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nia01\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AIMS\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90150820-9E0B-4C69-BC49-F00FF602FD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B0750B-EC09-4007-9998-49463FE3972E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{649C9AB6-D848-4FE1-B525-8A55AB98F53D}"/>
   </bookViews>
@@ -327,13 +327,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -342,15 +336,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,6 +401,21 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -424,259 +424,6 @@
     <cellStyle name="Normal 4" xfId="1" xr:uid="{9F4D894B-529B-4284-951A-2EE7B9B092DE}"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -738,12 +485,265 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -763,106 +763,101 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>398367</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>46374</xdr:rowOff>
+      <xdr:rowOff>44822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2080847</xdr:colOff>
+      <xdr:colOff>1187422</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>41688</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B772CC50-3798-457A-8DCB-6083908AFC1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A485D99F-6B82-22CE-1411-88F331970966}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="828675" y="46374"/>
-          <a:ext cx="1652222" cy="791825"/>
-          <a:chOff x="0" y="0"/>
-          <a:chExt cx="1061300" cy="514985"/>
+          <a:off x="801779" y="44822"/>
+          <a:ext cx="789055" cy="781278"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A485D99F-6B82-22CE-1411-88F331970966}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="506095" cy="506095"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Picture 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A11A035-C189-89E2-2749-03E56BCD9BE6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="546315" y="0"/>
-            <a:ext cx="514985" cy="514985"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1277931</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>46561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2080846</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A11A035-C189-89E2-2749-03E56BCD9BE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1681343" y="46561"/>
+          <a:ext cx="802915" cy="795001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -917,18 +912,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41666776-4492-4E68-9403-097B9820C155}" name="Table1" displayName="Table1" ref="A6:F56" totalsRowShown="0" headerRowDxfId="0" dataDxfId="15" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41666776-4492-4E68-9403-097B9820C155}" name="Table1" displayName="Table1" ref="A6:F56" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A6:F56" xr:uid="{29436551-60A7-4308-A533-499D1C8DBAB8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:F56">
     <sortCondition ref="B6:B56"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FAB38DCC-3FD5-4671-ADDC-8C96A57D7F8D}" name="NO." dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{F750777E-02AB-4ED6-92EE-06D0CD947D7C}" name="NAMES" dataDxfId="5" dataCellStyle="Normal 4"/>
-    <tableColumn id="3" xr3:uid="{ED9D8391-5A8D-4F9C-AE85-142AB53F9708}" name="STATUS" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{E8D94D4E-2EF5-49FF-A711-285ABB982AF4}" name="REMARKS" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{5A873962-0E79-4C4A-90FD-2C4AAF2CEE0E}" name="DATE" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{832BB35B-A1CA-4DE1-BAD4-FBAE46B09EBE}" name="PAYROLL  PERIOD" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{FAB38DCC-3FD5-4671-ADDC-8C96A57D7F8D}" name="NO." dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{F750777E-02AB-4ED6-92EE-06D0CD947D7C}" name="NAMES" dataDxfId="9" dataCellStyle="Normal 4"/>
+    <tableColumn id="3" xr3:uid="{ED9D8391-5A8D-4F9C-AE85-142AB53F9708}" name="STATUS" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{E8D94D4E-2EF5-49FF-A711-285ABB982AF4}" name="REMARKS" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{5A873962-0E79-4C4A-90FD-2C4AAF2CEE0E}" name="DATE" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{832BB35B-A1CA-4DE1-BAD4-FBAE46B09EBE}" name="PAYROLL  PERIOD" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1197,10 +1192,10 @@
   </sheetPr>
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="C17" sqref="C17"/>
+      <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1216,481 +1211,481 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="15" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="16.5">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="1"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" customFormat="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="22" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" customFormat="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:8" s="9" customFormat="1" ht="15.75">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="32"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="32"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:8" ht="15.75">
-      <c r="A9" s="28"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="32"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:8" ht="15.75">
-      <c r="A10" s="28"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="32"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:8" ht="15.75">
-      <c r="A11" s="28"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="32"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:8" ht="15.75">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="32"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:8" ht="15.75">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="32"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="15.75">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="32"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:8" ht="15.75">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:8" ht="15.75">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="32"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6" ht="15.75">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="32"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:6" ht="15.75">
-      <c r="A18" s="28"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="32"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" ht="15.75">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="32"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6" ht="15.75">
-      <c r="A20" s="28"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="32"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6" ht="15.75">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="32"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6" ht="15.75">
-      <c r="A22" s="28"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="32"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:6" ht="15.75">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="32"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:6" ht="15.75">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="32"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="15.75">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="32"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6" ht="15.75">
-      <c r="A26" s="28"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="32"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6" ht="15.75">
-      <c r="A27" s="28"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="32"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="15.75">
-      <c r="A28" s="28"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="32"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" ht="15.75">
-      <c r="A29" s="28"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="32"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:6" ht="15.75">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="32"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:6" ht="15.75">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="32"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:6" ht="15.75">
-      <c r="A32" s="28"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="32"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" spans="1:6" ht="15.75">
-      <c r="A33" s="28"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="32"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="27"/>
     </row>
     <row r="34" spans="1:6" ht="15.75">
-      <c r="A34" s="28"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="32"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="27"/>
     </row>
     <row r="35" spans="1:6" ht="15.75">
-      <c r="A35" s="28"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="32"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="27"/>
     </row>
     <row r="36" spans="1:6" ht="15.75">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="32"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="27"/>
     </row>
     <row r="37" spans="1:6" ht="15.75">
-      <c r="A37" s="28"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="32"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="27"/>
     </row>
     <row r="38" spans="1:6" ht="15.75">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="32"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="27"/>
     </row>
     <row r="39" spans="1:6" ht="15.75">
-      <c r="A39" s="28"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="32"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="27"/>
     </row>
     <row r="40" spans="1:6" ht="15.75">
-      <c r="A40" s="28"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="32"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="27"/>
     </row>
     <row r="41" spans="1:6" ht="15.75">
-      <c r="A41" s="28"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="32"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="27"/>
     </row>
     <row r="42" spans="1:6" ht="15.75">
-      <c r="A42" s="28"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="32"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="27"/>
     </row>
     <row r="43" spans="1:6" ht="15.75">
-      <c r="A43" s="28"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="32"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="27"/>
     </row>
     <row r="44" spans="1:6" ht="15.75">
-      <c r="A44" s="28"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="32"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="27"/>
     </row>
     <row r="45" spans="1:6" ht="15.75">
-      <c r="A45" s="28"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="32"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="27"/>
     </row>
     <row r="46" spans="1:6" ht="15.75">
-      <c r="A46" s="28"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="32"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="27"/>
     </row>
     <row r="47" spans="1:6" ht="15.75">
-      <c r="A47" s="28"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="32"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="27"/>
     </row>
     <row r="48" spans="1:6" ht="15.75">
-      <c r="A48" s="28"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="32"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="27"/>
     </row>
     <row r="49" spans="1:6" ht="15.75">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="32"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="27"/>
     </row>
     <row r="50" spans="1:6" ht="15.75">
-      <c r="A50" s="28"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="32"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="27"/>
     </row>
     <row r="51" spans="1:6" ht="15.75">
-      <c r="A51" s="28"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="32"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="27"/>
     </row>
     <row r="52" spans="1:6" ht="15.75">
-      <c r="A52" s="28"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="32"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="27"/>
     </row>
     <row r="53" spans="1:6" ht="15.75">
-      <c r="A53" s="28"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="32"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="27"/>
     </row>
     <row r="54" spans="1:6" ht="15.75">
-      <c r="A54" s="28"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="32"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="27"/>
     </row>
     <row r="55" spans="1:6" ht="15.75">
-      <c r="A55" s="28"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="32"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="27"/>
     </row>
     <row r="56" spans="1:6" ht="15.75">
-      <c r="A56" s="39"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="43"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="38"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1702,19 +1697,19 @@
     <mergeCell ref="A5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:E7 E8:E14 C8:C56">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="NO ATTACHMENTS">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="NO ATTACHMENTS">
       <formula>NOT(ISERROR(SEARCH("NO ATTACHMENTS",C7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="FOR REVIEW">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="FOR REVIEW">
       <formula>NOT(ISERROR(SEARCH("FOR REVIEW",C7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="LACKING INFORMATION">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="LACKING INFORMATION">
       <formula>NOT(ISERROR(SEARCH("LACKING INFORMATION",C7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="COMPLETE AND LATE">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="COMPLETE AND LATE">
       <formula>NOT(ISERROR(SEARCH("COMPLETE AND LATE",C7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="COMPLETE">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="COMPLETE">
       <formula>NOT(ISERROR(SEARCH("COMPLETE",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
